--- a/pad30/Cont3.xlsx
+++ b/pad30/Cont3.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28860" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="V+" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="adc_11">Sheet1!$N$24</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>R</t>
   </si>
@@ -65,12 +64,6 @@
   </si>
   <si>
     <t>DAC values</t>
-  </si>
-  <si>
-    <t>ADC</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
   <si>
     <t>SUMMARY OUTPUT</t>
@@ -143,12 +136,6 @@
   </si>
   <si>
     <t>Upper 95.0%</t>
-  </si>
-  <si>
-    <t>VBATT</t>
-  </si>
-  <si>
-    <t>V+</t>
   </si>
   <si>
     <t>Vadc</t>
@@ -921,23 +908,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="107332736"/>
-        <c:axId val="107296640"/>
+        <c:axId val="85371136"/>
+        <c:axId val="85381120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107332736"/>
+        <c:axId val="85371136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107296640"/>
+        <c:crossAx val="85381120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107296640"/>
+        <c:axId val="85381120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500"/>
@@ -946,7 +933,639 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107332736"/>
+        <c:crossAx val="85371136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$5:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$5:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$5:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$5:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="58463744"/>
+        <c:axId val="58462208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="58463744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58462208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="58462208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58463744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -983,6 +1602,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1287,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1344,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
@@ -1417,7 +2071,7 @@
         <v>670</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -1453,7 +2107,7 @@
         <v>670</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N6" s="5">
         <v>0.9905817895298703</v>
@@ -1491,7 +2145,7 @@
         <v>670</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N7" s="5">
         <v>0.98125228174820023</v>
@@ -1529,7 +2183,7 @@
         <v>670</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N8" s="5">
         <v>0.98070886962495973</v>
@@ -1567,7 +2221,7 @@
         <v>670</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N9" s="5">
         <v>4.828289561223583</v>
@@ -1605,7 +2259,7 @@
         <v>670</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N10" s="6">
         <v>72</v>
@@ -1675,7 +2329,7 @@
         <v>670</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1711,19 +2365,19 @@
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="R13" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1758,7 +2412,7 @@
         <v>670</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N14" s="5">
         <v>2</v>
@@ -1808,7 +2462,7 @@
         <v>670</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N15" s="5">
         <v>69</v>
@@ -1854,7 +2508,7 @@
         <v>726</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N16" s="6">
         <v>71</v>
@@ -1889,28 +2543,28 @@
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="7" t="s">
+      <c r="R18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="S18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="T18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="U18" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="9:30">
@@ -1924,7 +2578,7 @@
         <v>726</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N19" s="5">
         <v>53.862192930284664</v>
@@ -1963,7 +2617,7 @@
         <v>726</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N20" s="5">
         <v>-1.4662390416927147</v>
@@ -2002,7 +2656,7 @@
         <v>726</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N21" s="6">
         <v>1.4003894866751618</v>
@@ -2053,7 +2707,7 @@
         <v>726</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N23" s="1">
         <v>11</v>
@@ -2125,21 +2779,21 @@
         <v>671</v>
       </c>
       <c r="O25">
-        <f>b_c*N25+b_v*adc_11+b_0</f>
+        <f t="shared" ref="O25:O36" si="0">b_c*N25+b_v*adc_11+b_0</f>
         <v>8.2767520268315593</v>
       </c>
       <c r="Q25">
         <v>728</v>
       </c>
       <c r="R25">
-        <f>b_c*Q25+b_v*adc_12+b_0</f>
+        <f t="shared" ref="R25:R36" si="1">b_c*Q25+b_v*adc_12+b_0</f>
         <v>3.1229379041557195</v>
       </c>
       <c r="T25">
         <v>788</v>
       </c>
       <c r="U25">
-        <f>b_c*T25+b_v*adc_13+b_0</f>
+        <f t="shared" ref="U25:U36" si="2">b_c*T25+b_v*adc_13+b_0</f>
         <v>0.5723540897777184</v>
       </c>
       <c r="V25" s="3"/>
@@ -2147,21 +2801,21 @@
         <v>852</v>
       </c>
       <c r="X25">
-        <f>b_c*W25+b_v*adc_14+b_0</f>
+        <f t="shared" ref="X25:X36" si="3">b_c*W25+b_v*adc_14+b_0</f>
         <v>-5.042406918020788</v>
       </c>
       <c r="Z25">
         <v>913</v>
       </c>
       <c r="AA25">
-        <f>b_c*Z25+b_v*adc_15+b_0</f>
+        <f t="shared" ref="AA25:AA36" si="4">b_c*Z25+b_v*adc_15+b_0</f>
         <v>-9.0592297740913637</v>
       </c>
       <c r="AC25">
         <v>968</v>
       </c>
       <c r="AD25">
-        <f>b_c*AC25+b_v*adc_16+b_0</f>
+        <f t="shared" ref="AD25:AD36" si="5">b_c*AC25+b_v*adc_16+b_0</f>
         <v>-12.680955300056667</v>
       </c>
     </row>
@@ -2182,21 +2836,21 @@
         <v>665</v>
       </c>
       <c r="O26">
-        <f>b_c*N26+b_v*adc_11+b_0</f>
+        <f t="shared" si="0"/>
         <v>17.074186276987803</v>
       </c>
       <c r="Q26">
         <v>721</v>
       </c>
       <c r="R26">
-        <f>b_c*Q26+b_v*adc_12+b_0</f>
+        <f t="shared" si="1"/>
         <v>13.386611196004765</v>
       </c>
       <c r="T26">
         <v>781</v>
       </c>
       <c r="U26">
-        <f>b_c*T26+b_v*adc_13+b_0</f>
+        <f t="shared" si="2"/>
         <v>10.836027381626764</v>
       </c>
       <c r="V26" s="3"/>
@@ -2204,21 +2858,21 @@
         <v>843</v>
       </c>
       <c r="X26">
-        <f>b_c*W26+b_v*adc_14+b_0</f>
+        <f t="shared" si="3"/>
         <v>8.1537444572136337</v>
       </c>
       <c r="Z26">
         <v>904</v>
       </c>
       <c r="AA26">
-        <f>b_c*Z26+b_v*adc_15+b_0</f>
+        <f t="shared" si="4"/>
         <v>4.1369216011430581</v>
       </c>
       <c r="AC26">
         <v>959</v>
       </c>
       <c r="AD26">
-        <f>b_c*AC26+b_v*adc_16+b_0</f>
+        <f t="shared" si="5"/>
         <v>0.51519607517775512</v>
       </c>
     </row>
@@ -2239,21 +2893,21 @@
         <v>658</v>
       </c>
       <c r="O27">
-        <f>b_c*N27+b_v*adc_11+b_0</f>
+        <f t="shared" si="0"/>
         <v>27.337859568836848</v>
       </c>
       <c r="Q27">
         <v>714</v>
       </c>
       <c r="R27">
-        <f>b_c*Q27+b_v*adc_12+b_0</f>
+        <f t="shared" si="1"/>
         <v>23.65028448785381</v>
       </c>
       <c r="T27">
         <v>773</v>
       </c>
       <c r="U27">
-        <f>b_c*T27+b_v*adc_13+b_0</f>
+        <f t="shared" si="2"/>
         <v>22.565939715168497</v>
       </c>
       <c r="V27" s="3"/>
@@ -2261,21 +2915,21 @@
         <v>835</v>
       </c>
       <c r="X27">
-        <f>b_c*W27+b_v*adc_14+b_0</f>
+        <f t="shared" si="3"/>
         <v>19.883656790755367</v>
       </c>
       <c r="Z27">
         <v>895</v>
       </c>
       <c r="AA27">
-        <f>b_c*Z27+b_v*adc_15+b_0</f>
+        <f t="shared" si="4"/>
         <v>17.33307297637748</v>
       </c>
       <c r="AC27">
         <v>950</v>
       </c>
       <c r="AD27">
-        <f>b_c*AC27+b_v*adc_16+b_0</f>
+        <f t="shared" si="5"/>
         <v>13.711347450412177</v>
       </c>
     </row>
@@ -2296,21 +2950,21 @@
         <v>652</v>
       </c>
       <c r="O28">
-        <f>b_c*N28+b_v*adc_11+b_0</f>
+        <f t="shared" si="0"/>
         <v>36.135293818993091</v>
       </c>
       <c r="Q28">
         <v>707</v>
       </c>
       <c r="R28">
-        <f>b_c*Q28+b_v*adc_12+b_0</f>
+        <f t="shared" si="1"/>
         <v>33.913957779702855</v>
       </c>
       <c r="T28">
         <v>766</v>
       </c>
       <c r="U28">
-        <f>b_c*T28+b_v*adc_13+b_0</f>
+        <f t="shared" si="2"/>
         <v>32.829613007017542</v>
       </c>
       <c r="V28" s="3"/>
@@ -2318,21 +2972,21 @@
         <v>827</v>
       </c>
       <c r="X28">
-        <f>b_c*W28+b_v*adc_14+b_0</f>
+        <f t="shared" si="3"/>
         <v>31.613569124297101</v>
       </c>
       <c r="Z28">
         <v>887</v>
       </c>
       <c r="AA28">
-        <f>b_c*Z28+b_v*adc_15+b_0</f>
+        <f t="shared" si="4"/>
         <v>29.062985309919213</v>
       </c>
       <c r="AC28">
         <v>941</v>
       </c>
       <c r="AD28">
-        <f>b_c*AC28+b_v*adc_16+b_0</f>
+        <f t="shared" si="5"/>
         <v>26.907498825646599</v>
       </c>
     </row>
@@ -2353,21 +3007,21 @@
         <v>646</v>
       </c>
       <c r="O29">
-        <f>b_c*N29+b_v*adc_11+b_0</f>
+        <f t="shared" si="0"/>
         <v>44.932728069149448</v>
       </c>
       <c r="Q29">
         <v>701</v>
       </c>
       <c r="R29">
-        <f>b_c*Q29+b_v*adc_12+b_0</f>
+        <f t="shared" si="1"/>
         <v>42.711392029859212</v>
       </c>
       <c r="T29">
         <v>759</v>
       </c>
       <c r="U29">
-        <f>b_c*T29+b_v*adc_13+b_0</f>
+        <f t="shared" si="2"/>
         <v>43.093286298866587</v>
       </c>
       <c r="V29" s="4"/>
@@ -2375,21 +3029,21 @@
         <v>820</v>
       </c>
       <c r="X29">
-        <f>b_c*W29+b_v*adc_14+b_0</f>
+        <f t="shared" si="3"/>
         <v>41.877242416146146</v>
       </c>
       <c r="Z29">
         <v>879</v>
       </c>
       <c r="AA29">
-        <f>b_c*Z29+b_v*adc_15+b_0</f>
+        <f t="shared" si="4"/>
         <v>40.792897643460947</v>
       </c>
       <c r="AC29">
         <v>932</v>
       </c>
       <c r="AD29">
-        <f>b_c*AC29+b_v*adc_16+b_0</f>
+        <f t="shared" si="5"/>
         <v>40.10365020088102</v>
       </c>
     </row>
@@ -2410,42 +3064,42 @@
         <v>640</v>
       </c>
       <c r="O30">
-        <f>b_c*N30+b_v*adc_11+b_0</f>
+        <f t="shared" si="0"/>
         <v>53.730162319305691</v>
       </c>
       <c r="Q30">
         <v>695</v>
       </c>
       <c r="R30">
-        <f>b_c*Q30+b_v*adc_12+b_0</f>
+        <f t="shared" si="1"/>
         <v>51.508826280015342</v>
       </c>
       <c r="T30">
         <v>752</v>
       </c>
       <c r="U30">
-        <f>b_c*T30+b_v*adc_13+b_0</f>
+        <f t="shared" si="2"/>
         <v>53.356959590715633</v>
       </c>
       <c r="W30">
         <v>813</v>
       </c>
       <c r="X30">
-        <f>b_c*W30+b_v*adc_14+b_0</f>
+        <f t="shared" si="3"/>
         <v>52.140915707995191</v>
       </c>
       <c r="Z30">
         <v>871</v>
       </c>
       <c r="AA30">
-        <f>b_c*Z30+b_v*adc_15+b_0</f>
+        <f t="shared" si="4"/>
         <v>52.52280997700268</v>
       </c>
       <c r="AC30">
         <v>924</v>
       </c>
       <c r="AD30">
-        <f>b_c*AC30+b_v*adc_16+b_0</f>
+        <f t="shared" si="5"/>
         <v>51.833562534422754</v>
       </c>
     </row>
@@ -2466,42 +3120,42 @@
         <v>635</v>
       </c>
       <c r="O31">
-        <f>b_c*N31+b_v*adc_11+b_0</f>
+        <f t="shared" si="0"/>
         <v>61.061357527769246</v>
       </c>
       <c r="Q31">
         <v>689</v>
       </c>
       <c r="R31">
-        <f>b_c*Q31+b_v*adc_12+b_0</f>
+        <f t="shared" si="1"/>
         <v>60.306260530171699</v>
       </c>
       <c r="T31">
         <v>746</v>
       </c>
       <c r="U31">
-        <f>b_c*T31+b_v*adc_13+b_0</f>
+        <f t="shared" si="2"/>
         <v>62.154393840871762</v>
       </c>
       <c r="W31">
         <v>806</v>
       </c>
       <c r="X31">
-        <f>b_c*W31+b_v*adc_14+b_0</f>
+        <f t="shared" si="3"/>
         <v>62.404588999844009</v>
       </c>
       <c r="Z31">
         <v>864</v>
       </c>
       <c r="AA31">
-        <f>b_c*Z31+b_v*adc_15+b_0</f>
+        <f t="shared" si="4"/>
         <v>62.786483268851725</v>
       </c>
       <c r="AC31">
         <v>916</v>
       </c>
       <c r="AD31">
-        <f>b_c*AC31+b_v*adc_16+b_0</f>
+        <f t="shared" si="5"/>
         <v>63.563474867964487</v>
       </c>
     </row>
@@ -2522,42 +3176,42 @@
         <v>630</v>
       </c>
       <c r="O32">
-        <f>b_c*N32+b_v*adc_11+b_0</f>
+        <f t="shared" si="0"/>
         <v>68.392552736232915</v>
       </c>
       <c r="Q32">
         <v>683</v>
       </c>
       <c r="R32">
-        <f>b_c*Q32+b_v*adc_12+b_0</f>
+        <f t="shared" si="1"/>
         <v>69.103694780327942</v>
       </c>
       <c r="T32">
         <v>740</v>
       </c>
       <c r="U32">
-        <f>b_c*T32+b_v*adc_13+b_0</f>
+        <f t="shared" si="2"/>
         <v>70.951828091028119</v>
       </c>
       <c r="W32">
         <v>799</v>
       </c>
       <c r="X32">
-        <f>b_c*W32+b_v*adc_14+b_0</f>
+        <f t="shared" si="3"/>
         <v>72.668262291693054</v>
       </c>
       <c r="Z32">
         <v>857</v>
       </c>
       <c r="AA32">
-        <f>b_c*Z32+b_v*adc_15+b_0</f>
+        <f t="shared" si="4"/>
         <v>73.050156560700543</v>
       </c>
       <c r="AC32">
         <v>909</v>
       </c>
       <c r="AD32">
-        <f>b_c*AC32+b_v*adc_16+b_0</f>
+        <f t="shared" si="5"/>
         <v>73.827148159813305</v>
       </c>
     </row>
@@ -2578,42 +3232,42 @@
         <v>625</v>
       </c>
       <c r="O33">
-        <f>b_c*N33+b_v*adc_11+b_0</f>
+        <f t="shared" si="0"/>
         <v>75.72374794469647</v>
       </c>
       <c r="Q33">
         <v>678</v>
       </c>
       <c r="R33">
-        <f>b_c*Q33+b_v*adc_12+b_0</f>
+        <f t="shared" si="1"/>
         <v>76.434889988791497</v>
       </c>
       <c r="T33">
         <v>734</v>
       </c>
       <c r="U33">
-        <f>b_c*T33+b_v*adc_13+b_0</f>
+        <f t="shared" si="2"/>
         <v>79.749262341184476</v>
       </c>
       <c r="W33">
         <v>793</v>
       </c>
       <c r="X33">
-        <f>b_c*W33+b_v*adc_14+b_0</f>
+        <f t="shared" si="3"/>
         <v>81.465696541849411</v>
       </c>
       <c r="Z33">
         <v>850</v>
       </c>
       <c r="AA33">
-        <f>b_c*Z33+b_v*adc_15+b_0</f>
+        <f t="shared" si="4"/>
         <v>83.313829852549588</v>
       </c>
       <c r="AC33">
         <v>902</v>
       </c>
       <c r="AD33">
-        <f>b_c*AC33+b_v*adc_16+b_0</f>
+        <f t="shared" si="5"/>
         <v>84.09082145166235</v>
       </c>
     </row>
@@ -2634,42 +3288,42 @@
         <v>620</v>
       </c>
       <c r="O34">
-        <f>b_c*N34+b_v*adc_11+b_0</f>
+        <f t="shared" si="0"/>
         <v>83.054943153160025</v>
       </c>
       <c r="Q34">
         <v>672</v>
       </c>
       <c r="R34">
-        <f>b_c*Q34+b_v*adc_12+b_0</f>
+        <f t="shared" si="1"/>
         <v>85.232324238947854</v>
       </c>
       <c r="T34">
         <v>728</v>
       </c>
       <c r="U34">
-        <f>b_c*T34+b_v*adc_13+b_0</f>
+        <f t="shared" si="2"/>
         <v>88.546696591340606</v>
       </c>
       <c r="W34">
         <v>787</v>
       </c>
       <c r="X34">
-        <f>b_c*W34+b_v*adc_14+b_0</f>
+        <f t="shared" si="3"/>
         <v>90.263130792005768</v>
       </c>
       <c r="Z34">
         <v>843</v>
       </c>
       <c r="AA34">
-        <f>b_c*Z34+b_v*adc_15+b_0</f>
+        <f t="shared" si="4"/>
         <v>93.577503144398634</v>
       </c>
       <c r="AC34">
         <v>894</v>
       </c>
       <c r="AD34">
-        <f>b_c*AC34+b_v*adc_16+b_0</f>
+        <f t="shared" si="5"/>
         <v>95.820733785204084</v>
       </c>
     </row>
@@ -2690,42 +3344,42 @@
         <v>615</v>
       </c>
       <c r="O35">
-        <f>b_c*N35+b_v*adc_11+b_0</f>
+        <f t="shared" si="0"/>
         <v>90.38613836162358</v>
       </c>
       <c r="Q35">
         <v>667</v>
       </c>
       <c r="R35">
-        <f>b_c*Q35+b_v*adc_12+b_0</f>
+        <f t="shared" si="1"/>
         <v>92.563519447411409</v>
       </c>
       <c r="T35">
         <v>723</v>
       </c>
       <c r="U35">
-        <f>b_c*T35+b_v*adc_13+b_0</f>
+        <f t="shared" si="2"/>
         <v>95.877891799804274</v>
       </c>
       <c r="W35">
         <v>781</v>
       </c>
       <c r="X35">
-        <f>b_c*W35+b_v*adc_14+b_0</f>
+        <f t="shared" si="3"/>
         <v>99.060565042161898</v>
       </c>
       <c r="Z35">
         <v>837</v>
       </c>
       <c r="AA35">
-        <f>b_c*Z35+b_v*adc_15+b_0</f>
+        <f t="shared" si="4"/>
         <v>102.37493739455499</v>
       </c>
       <c r="AC35">
         <v>888</v>
       </c>
       <c r="AD35">
-        <f>b_c*AC35+b_v*adc_16+b_0</f>
+        <f t="shared" si="5"/>
         <v>104.61816803536044</v>
       </c>
     </row>
@@ -2751,42 +3405,42 @@
         <v>611</v>
       </c>
       <c r="O36">
-        <f>b_c*N36+b_v*adc_11+b_0</f>
+        <f t="shared" si="0"/>
         <v>96.251094528394447</v>
       </c>
       <c r="Q36">
         <v>662</v>
       </c>
       <c r="R36">
-        <f>b_c*Q36+b_v*adc_12+b_0</f>
+        <f t="shared" si="1"/>
         <v>99.894714655874964</v>
       </c>
       <c r="T36">
         <v>717</v>
       </c>
       <c r="U36">
-        <f>b_c*T36+b_v*adc_13+b_0</f>
+        <f t="shared" si="2"/>
         <v>104.67532604996063</v>
       </c>
       <c r="W36">
         <v>775</v>
       </c>
       <c r="X36">
-        <f>b_c*W36+b_v*adc_14+b_0</f>
+        <f t="shared" si="3"/>
         <v>107.85799929231825</v>
       </c>
       <c r="Z36">
         <v>831</v>
       </c>
       <c r="AA36">
-        <f>b_c*Z36+b_v*adc_15+b_0</f>
+        <f t="shared" si="4"/>
         <v>111.17237164471112</v>
       </c>
       <c r="AC36">
         <v>881</v>
       </c>
       <c r="AD36">
-        <f>b_c*AC36+b_v*adc_16+b_0</f>
+        <f t="shared" si="5"/>
         <v>114.88184132720949</v>
       </c>
     </row>
@@ -3233,1200 +3887,1336 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="18">
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>673</v>
+      </c>
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B3" s="1">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>673</v>
+      </c>
+      <c r="C4">
+        <v>728</v>
+      </c>
+      <c r="D4">
+        <v>789</v>
+      </c>
+      <c r="E4">
+        <v>849</v>
+      </c>
+      <c r="F4">
+        <v>910</v>
+      </c>
+      <c r="G4">
+        <v>974</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>673</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="I5">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>673</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.99045832801273859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>36</v>
+      </c>
+      <c r="K6">
+        <v>673</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.98100769952978972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>41</v>
+      </c>
+      <c r="K7">
+        <v>673</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.98045719806688514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+      <c r="J8">
+        <v>47</v>
+      </c>
+      <c r="K8">
+        <v>673</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="5">
+        <v>4.8596823721935971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>70</v>
+      </c>
+      <c r="J9">
+        <v>52</v>
+      </c>
+      <c r="K9">
+        <v>673</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>49</v>
+      </c>
+      <c r="F10">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>55</v>
+      </c>
+      <c r="I10">
+        <v>80</v>
+      </c>
+      <c r="J10">
+        <v>57</v>
+      </c>
+      <c r="K10">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>63</v>
+      </c>
+      <c r="I11">
+        <v>90</v>
+      </c>
+      <c r="J11">
+        <v>62</v>
+      </c>
+      <c r="K11">
+        <v>673</v>
+      </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>63</v>
+      </c>
+      <c r="F12">
+        <v>66</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>66</v>
+      </c>
+      <c r="K12">
+        <v>673</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>61</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>69</v>
+      </c>
+      <c r="F13">
+        <v>73</v>
+      </c>
+      <c r="G13">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>110</v>
+      </c>
+      <c r="J13">
+        <v>71</v>
+      </c>
+      <c r="K13">
+        <v>673</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="5">
+        <v>2</v>
+      </c>
+      <c r="O13" s="5">
+        <v>84170.460619655962</v>
+      </c>
+      <c r="P13" s="5">
+        <v>42085.230309827981</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1782.0255996299111</v>
+      </c>
+      <c r="R13" s="5">
+        <v>4.0825005368850719E-60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>66</v>
+      </c>
+      <c r="D14">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>79</v>
+      </c>
+      <c r="G14">
+        <v>84</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>728</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+      <c r="N14" s="5">
+        <v>69</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1629.5393803440338</v>
+      </c>
+      <c r="P14" s="5">
+        <v>23.616512758609186</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>71</v>
+      </c>
+      <c r="D15">
+        <v>76</v>
+      </c>
+      <c r="E15">
+        <v>81</v>
+      </c>
+      <c r="F15">
+        <v>86</v>
+      </c>
+      <c r="G15">
+        <v>91</v>
+      </c>
+      <c r="I15">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="J15">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>728</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="6">
+        <v>71</v>
+      </c>
+      <c r="O15" s="6">
+        <v>85800</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A16">
+        <v>110</v>
+      </c>
+      <c r="B16">
+        <v>71</v>
+      </c>
+      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="D16">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>87</v>
+      </c>
+      <c r="F16">
+        <v>92</v>
+      </c>
+      <c r="G16">
+        <v>98</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="17" spans="9:21">
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <v>728</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="9:21">
+      <c r="I18">
+        <v>40</v>
+      </c>
+      <c r="J18">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>728</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="5">
+        <v>37.979235852589326</v>
+      </c>
+      <c r="O18" s="5">
+        <v>4.6056695013187534</v>
+      </c>
+      <c r="P18" s="5">
+        <v>8.2461921858949356</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>7.0878000572479776E-12</v>
+      </c>
+      <c r="R18" s="5">
+        <v>28.791176712808973</v>
+      </c>
+      <c r="S18" s="5">
+        <v>47.167294992369676</v>
+      </c>
+      <c r="T18" s="5">
+        <v>28.791176712808973</v>
+      </c>
+      <c r="U18" s="5">
+        <v>47.167294992369676</v>
+      </c>
+    </row>
+    <row r="19" spans="9:21">
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>728</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1.4840952238324236</v>
+      </c>
+      <c r="O19" s="5">
+        <v>2.4859351796596995E-2</v>
+      </c>
+      <c r="P19" s="5">
+        <v>59.699675034792421</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>3.9437896167880524E-61</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1.434502174566006</v>
+      </c>
+      <c r="S19" s="5">
+        <v>1.5336882730988413</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1.434502174566006</v>
+      </c>
+      <c r="U19" s="5">
+        <v>1.5336882730988413</v>
+      </c>
+    </row>
+    <row r="20" spans="9:21" ht="15.75" thickBot="1">
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <v>50</v>
+      </c>
+      <c r="K20">
+        <v>728</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="6">
+        <v>-6.9417745611094178E-2</v>
+      </c>
+      <c r="O20" s="6">
+        <v>5.6791414166737966E-3</v>
+      </c>
+      <c r="P20" s="6">
+        <v>-12.223281745949425</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>6.2530801406105506E-19</v>
+      </c>
+      <c r="R20" s="6">
+        <v>-8.0747322599767357E-2</v>
+      </c>
+      <c r="S20" s="6">
+        <v>-5.8088168622420999E-2</v>
+      </c>
+      <c r="T20" s="6">
+        <v>-8.0747322599767357E-2</v>
+      </c>
+      <c r="U20" s="6">
+        <v>-5.8088168622420999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:21">
+      <c r="I21">
+        <v>70</v>
+      </c>
+      <c r="J21">
+        <v>55</v>
+      </c>
+      <c r="K21">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="22" spans="9:21">
+      <c r="I22">
+        <v>80</v>
+      </c>
+      <c r="J22">
+        <v>61</v>
+      </c>
+      <c r="K22">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="23" spans="9:21">
+      <c r="I23">
+        <v>90</v>
+      </c>
+      <c r="J23">
+        <v>66</v>
+      </c>
+      <c r="K23">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="24" spans="9:21">
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>71</v>
+      </c>
+      <c r="K24">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="25" spans="9:21">
+      <c r="I25">
+        <v>110</v>
+      </c>
+      <c r="J25">
+        <v>76</v>
+      </c>
+      <c r="K25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="26" spans="9:21">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="27" spans="9:21">
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
         <v>19</v>
       </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A4">
+      <c r="K27">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="28" spans="9:21">
+      <c r="I28">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
+      <c r="J28">
+        <v>26</v>
+      </c>
+      <c r="K28">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="29" spans="9:21">
+      <c r="I29">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
+      <c r="J29">
+        <v>33</v>
+      </c>
+      <c r="K29">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="30" spans="9:21">
+      <c r="I30">
         <v>40</v>
       </c>
-      <c r="B6">
+      <c r="J30">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="31" spans="9:21">
+      <c r="I31">
+        <v>50</v>
+      </c>
+      <c r="J31">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="32" spans="9:21">
+      <c r="I32">
+        <v>60</v>
+      </c>
+      <c r="J32">
+        <v>53</v>
+      </c>
+      <c r="K32">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11">
+      <c r="I33">
+        <v>70</v>
+      </c>
+      <c r="J33">
+        <v>59</v>
+      </c>
+      <c r="K33">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11">
+      <c r="I34">
+        <v>80</v>
+      </c>
+      <c r="J34">
+        <v>65</v>
+      </c>
+      <c r="K34">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11">
+      <c r="I35">
+        <v>90</v>
+      </c>
+      <c r="J35">
+        <v>70</v>
+      </c>
+      <c r="K35">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11">
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>76</v>
+      </c>
+      <c r="K36">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11">
+      <c r="I37">
+        <v>110</v>
+      </c>
+      <c r="J37">
+        <v>81</v>
+      </c>
+      <c r="K37">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>11</v>
+      </c>
+      <c r="K38">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11">
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>19</v>
+      </c>
+      <c r="K39">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11">
+      <c r="I40">
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <v>27</v>
+      </c>
+      <c r="K40">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11">
+      <c r="I41">
+        <v>30</v>
+      </c>
+      <c r="J41">
+        <v>35</v>
+      </c>
+      <c r="K41">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11">
+      <c r="I42">
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <v>42</v>
+      </c>
+      <c r="K42">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11">
+      <c r="I43">
+        <v>50</v>
+      </c>
+      <c r="J43">
+        <v>49</v>
+      </c>
+      <c r="K43">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11">
+      <c r="I44">
+        <v>60</v>
+      </c>
+      <c r="J44">
+        <v>56</v>
+      </c>
+      <c r="K44">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11">
+      <c r="I45">
+        <v>70</v>
+      </c>
+      <c r="J45">
+        <v>63</v>
+      </c>
+      <c r="K45">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11">
+      <c r="I46">
+        <v>80</v>
+      </c>
+      <c r="J46">
+        <v>69</v>
+      </c>
+      <c r="K46">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11">
+      <c r="I47">
+        <v>90</v>
+      </c>
+      <c r="J47">
+        <v>75</v>
+      </c>
+      <c r="K47">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11">
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48">
+        <v>81</v>
+      </c>
+      <c r="K48">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11">
+      <c r="I49">
+        <v>110</v>
+      </c>
+      <c r="J49">
+        <v>87</v>
+      </c>
+      <c r="K49">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>11</v>
+      </c>
+      <c r="K50">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11">
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>20</v>
+      </c>
+      <c r="K51">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11">
+      <c r="I52">
+        <v>20</v>
+      </c>
+      <c r="J52">
+        <v>29</v>
+      </c>
+      <c r="K52">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11">
+      <c r="I53">
+        <v>30</v>
+      </c>
+      <c r="J53">
+        <v>37</v>
+      </c>
+      <c r="K53">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11">
+      <c r="I54">
+        <v>40</v>
+      </c>
+      <c r="J54">
+        <v>45</v>
+      </c>
+      <c r="K54">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11">
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="J55">
+        <v>52</v>
+      </c>
+      <c r="K55">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11">
+      <c r="I56">
+        <v>60</v>
+      </c>
+      <c r="J56">
+        <v>59</v>
+      </c>
+      <c r="K56">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11">
+      <c r="I57">
+        <v>70</v>
+      </c>
+      <c r="J57">
+        <v>66</v>
+      </c>
+      <c r="K57">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11">
+      <c r="I58">
+        <v>80</v>
+      </c>
+      <c r="J58">
+        <v>73</v>
+      </c>
+      <c r="K58">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11">
+      <c r="I59">
+        <v>90</v>
+      </c>
+      <c r="J59">
+        <v>79</v>
+      </c>
+      <c r="K59">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11">
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
+        <v>86</v>
+      </c>
+      <c r="K60">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11">
+      <c r="I61">
+        <v>110</v>
+      </c>
+      <c r="J61">
+        <v>92</v>
+      </c>
+      <c r="K61">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11">
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>11</v>
+      </c>
+      <c r="K62">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11">
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>20</v>
+      </c>
+      <c r="K63">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11">
+      <c r="I64">
+        <v>20</v>
+      </c>
+      <c r="J64">
+        <v>30</v>
+      </c>
+      <c r="K64">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11">
+      <c r="I65">
+        <v>30</v>
+      </c>
+      <c r="J65">
         <v>38</v>
       </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.99200358247023501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+      <c r="K65">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11">
+      <c r="I66">
+        <v>40</v>
+      </c>
+      <c r="J66">
+        <v>47</v>
+      </c>
+      <c r="K66">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11">
+      <c r="I67">
         <v>50</v>
       </c>
-      <c r="B7">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.98407110763378025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+      <c r="J67">
+        <v>55</v>
+      </c>
+      <c r="K67">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11">
+      <c r="I68">
         <v>60</v>
       </c>
-      <c r="B8">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.98300918147603222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+      <c r="J68">
+        <v>63</v>
+      </c>
+      <c r="K68">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11">
+      <c r="I69">
         <v>70</v>
       </c>
-      <c r="B9">
-        <v>56</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5">
-        <v>4.1859027225727345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A10">
+      <c r="J69">
+        <v>70</v>
+      </c>
+      <c r="K69">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11">
+      <c r="I70">
         <v>80</v>
       </c>
-      <c r="B10">
-        <v>61</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
+      <c r="J70">
+        <v>77</v>
+      </c>
+      <c r="K70">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11">
+      <c r="I71">
         <v>90</v>
       </c>
-      <c r="B11">
-        <v>66</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A12">
+      <c r="J71">
+        <v>84</v>
+      </c>
+      <c r="K71">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11">
+      <c r="I72">
         <v>100</v>
       </c>
-      <c r="B12">
-        <v>71</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>13.8</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>13.8</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>32474.346551914747</v>
-      </c>
-      <c r="H14" s="5">
-        <v>16237.173275957373</v>
-      </c>
-      <c r="I14" s="5">
-        <v>926.68506228407114</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1.0784094014029484E-27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>28</v>
-      </c>
-      <c r="C15">
-        <v>13.8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="5">
-        <v>30</v>
-      </c>
-      <c r="G15" s="5">
-        <v>525.65344808525492</v>
-      </c>
-      <c r="H15" s="5">
-        <v>17.521781602841831</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <v>13.8</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6">
-        <v>32</v>
-      </c>
-      <c r="G16" s="6">
-        <v>33000</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A17">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>42</v>
-      </c>
-      <c r="C17">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
-        <v>50</v>
-      </c>
-      <c r="B18">
-        <v>49</v>
-      </c>
-      <c r="C18">
-        <v>13.8</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19">
-        <v>60</v>
-      </c>
-      <c r="B19">
-        <v>56</v>
-      </c>
-      <c r="C19">
-        <v>13.8</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="5">
-        <v>30.236779240344475</v>
-      </c>
-      <c r="G19" s="5">
-        <v>6.2664408801173419</v>
-      </c>
-      <c r="H19" s="5">
-        <v>4.8251918144288437</v>
-      </c>
-      <c r="I19" s="5">
-        <v>3.8151202036516763E-5</v>
-      </c>
-      <c r="J19" s="5">
-        <v>17.438999675295033</v>
-      </c>
-      <c r="K19" s="5">
-        <v>43.034558805393914</v>
-      </c>
-      <c r="L19" s="5">
-        <v>17.438999675295033</v>
-      </c>
-      <c r="M19" s="5">
-        <v>43.034558805393914</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
-        <v>70</v>
-      </c>
-      <c r="B20">
-        <v>61</v>
-      </c>
-      <c r="C20">
-        <v>13.8</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1.4375540748966247</v>
-      </c>
-      <c r="G20" s="5">
-        <v>3.3392052227331138E-2</v>
-      </c>
-      <c r="H20" s="5">
-        <v>43.050785411745302</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1.5696831042745908E-28</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1.3693584066049294</v>
-      </c>
-      <c r="K20" s="5">
-        <v>1.50574974318832</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1.3693584066049294</v>
-      </c>
-      <c r="M20" s="5">
-        <v>1.50574974318832</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A21">
-        <v>80</v>
-      </c>
-      <c r="B21">
-        <v>68</v>
-      </c>
-      <c r="C21">
-        <v>13.8</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="6">
-        <v>-3.5276734698082373</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0.45295051603245073</v>
-      </c>
-      <c r="H21" s="6">
-        <v>-7.7882094068648859</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1.0874059453523902E-8</v>
-      </c>
-      <c r="J21" s="6">
-        <v>-4.4527218296277828</v>
-      </c>
-      <c r="K21" s="6">
-        <v>-2.6026251099886917</v>
-      </c>
-      <c r="L21" s="6">
-        <v>-4.4527218296277828</v>
-      </c>
-      <c r="M21" s="6">
-        <v>-2.6026251099886917</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22">
-        <v>90</v>
-      </c>
-      <c r="B22">
-        <v>74</v>
-      </c>
-      <c r="C22">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23">
-        <v>100</v>
-      </c>
-      <c r="B23">
-        <v>80</v>
-      </c>
-      <c r="C23">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <v>38</v>
-      </c>
-      <c r="C27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28">
-        <v>40</v>
-      </c>
-      <c r="B28">
-        <v>47</v>
-      </c>
-      <c r="C28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29">
-        <v>50</v>
-      </c>
-      <c r="B29">
-        <v>54</v>
-      </c>
-      <c r="C29">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30">
-        <v>60</v>
-      </c>
-      <c r="B30">
-        <v>63</v>
-      </c>
-      <c r="C30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31">
-        <v>70</v>
-      </c>
-      <c r="B31">
-        <v>69</v>
-      </c>
-      <c r="C31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32">
-        <v>80</v>
-      </c>
-      <c r="B32">
-        <v>77</v>
-      </c>
-      <c r="C32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>90</v>
-      </c>
-      <c r="B33">
-        <v>83</v>
-      </c>
-      <c r="C33">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>100</v>
-      </c>
-      <c r="B34">
-        <v>90</v>
-      </c>
-      <c r="C34">
-        <v>16</v>
+      <c r="J72">
+        <v>91</v>
+      </c>
+      <c r="K72">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11">
+      <c r="I73">
+        <v>110</v>
+      </c>
+      <c r="J73">
+        <v>98</v>
+      </c>
+      <c r="K73">
+        <v>974</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C23">
-    <sortCondition ref="B2:B23"/>
-    <sortCondition ref="C2:C23"/>
-  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>566</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3">
-        <v>563</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3">
-        <v>559</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3">
-        <v>553</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3">
-        <v>549</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.96398014334457827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>50</v>
-      </c>
-      <c r="B7" s="3">
-        <v>544</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.92925771676263358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>60</v>
-      </c>
-      <c r="B8" s="3">
-        <v>540</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.92454156454680914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9" s="3">
-        <v>537</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8.8213667626452956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A10">
-        <v>80</v>
-      </c>
-      <c r="B10" s="3">
-        <v>533</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>90</v>
-      </c>
-      <c r="B11" s="3">
-        <v>529</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12" s="4">
-        <v>525</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3">
-        <v>810</v>
-      </c>
-      <c r="C13">
-        <v>13.8</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>799</v>
-      </c>
-      <c r="C14">
-        <v>13.8</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>30665.504653166907</v>
-      </c>
-      <c r="H14" s="5">
-        <v>15332.752326583453</v>
-      </c>
-      <c r="I14" s="5">
-        <v>197.0372613599346</v>
-      </c>
-      <c r="J14" s="5">
-        <v>5.5614250816710118E-18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3">
-        <v>792</v>
-      </c>
-      <c r="C15">
-        <v>13.8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="5">
-        <v>30</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2334.4953468330941</v>
-      </c>
-      <c r="H15" s="5">
-        <v>77.816511561103141</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3">
-        <v>786</v>
-      </c>
-      <c r="C16">
-        <v>13.8</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6">
-        <v>32</v>
-      </c>
-      <c r="G16" s="6">
-        <v>33000</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A17">
-        <v>40</v>
-      </c>
-      <c r="B17" s="3">
-        <v>779</v>
-      </c>
-      <c r="C17">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
-        <v>50</v>
-      </c>
-      <c r="B18" s="3">
-        <v>775</v>
-      </c>
-      <c r="C18">
-        <v>13.8</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19">
-        <v>60</v>
-      </c>
-      <c r="B19" s="3">
-        <v>768</v>
-      </c>
-      <c r="C19">
-        <v>13.8</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="5">
-        <v>-19.853406838186856</v>
-      </c>
-      <c r="G19" s="5">
-        <v>9.0725167662227371</v>
-      </c>
-      <c r="H19" s="5">
-        <v>-2.1883020279556504</v>
-      </c>
-      <c r="I19" s="5">
-        <v>3.657011003752534E-2</v>
-      </c>
-      <c r="J19" s="5">
-        <v>-38.381957876261851</v>
-      </c>
-      <c r="K19" s="5">
-        <v>-1.3248558001118589</v>
-      </c>
-      <c r="L19" s="5">
-        <v>-38.381957876261851</v>
-      </c>
-      <c r="M19" s="5">
-        <v>-1.3248558001118589</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
-        <v>70</v>
-      </c>
-      <c r="B20" s="3">
-        <v>761</v>
-      </c>
-      <c r="C20">
-        <v>13.8</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="5">
-        <v>-1.552683779907184</v>
-      </c>
-      <c r="G20" s="5">
-        <v>7.8215682104567544E-2</v>
-      </c>
-      <c r="H20" s="5">
-        <v>-19.851310352716496</v>
-      </c>
-      <c r="I20" s="5">
-        <v>8.3147932708298039E-19</v>
-      </c>
-      <c r="J20" s="5">
-        <v>-1.7124215125777735</v>
-      </c>
-      <c r="K20" s="5">
-        <v>-1.3929460472365944</v>
-      </c>
-      <c r="L20" s="5">
-        <v>-1.7124215125777735</v>
-      </c>
-      <c r="M20" s="5">
-        <v>-1.3929460472365944</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A21">
-        <v>80</v>
-      </c>
-      <c r="B21" s="3">
-        <v>755</v>
-      </c>
-      <c r="C21">
-        <v>13.8</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="6">
-        <v>91.840397845990012</v>
-      </c>
-      <c r="G21" s="6">
-        <v>4.6677218523237727</v>
-      </c>
-      <c r="H21" s="6">
-        <v>19.675636370720827</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1.0657600223793148E-18</v>
-      </c>
-      <c r="J21" s="6">
-        <v>82.307638105681832</v>
-      </c>
-      <c r="K21" s="6">
-        <v>101.37315758629819</v>
-      </c>
-      <c r="L21" s="6">
-        <v>82.307638105681832</v>
-      </c>
-      <c r="M21" s="6">
-        <v>101.37315758629819</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22">
-        <v>90</v>
-      </c>
-      <c r="B22" s="3">
-        <v>750</v>
-      </c>
-      <c r="C22">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23">
-        <v>100</v>
-      </c>
-      <c r="B23" s="4">
-        <v>746</v>
-      </c>
-      <c r="C23">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3">
-        <v>938</v>
-      </c>
-      <c r="C24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3">
-        <v>929</v>
-      </c>
-      <c r="C25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3">
-        <v>920</v>
-      </c>
-      <c r="C26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3">
-        <v>912</v>
-      </c>
-      <c r="C27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28">
-        <v>40</v>
-      </c>
-      <c r="B28" s="3">
-        <v>907</v>
-      </c>
-      <c r="C28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29">
-        <v>50</v>
-      </c>
-      <c r="B29" s="3">
-        <v>900</v>
-      </c>
-      <c r="C29">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30">
-        <v>60</v>
-      </c>
-      <c r="B30" s="3">
-        <v>895</v>
-      </c>
-      <c r="C30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31">
-        <v>70</v>
-      </c>
-      <c r="B31" s="3">
-        <v>888</v>
-      </c>
-      <c r="C31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32">
-        <v>80</v>
-      </c>
-      <c r="B32" s="3">
-        <v>874</v>
-      </c>
-      <c r="C32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>90</v>
-      </c>
-      <c r="B33" s="3">
-        <v>868</v>
-      </c>
-      <c r="C33">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>100</v>
-      </c>
-      <c r="B34" s="4">
-        <v>861</v>
-      </c>
-      <c r="C34">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/pad30/Cont3.xlsx
+++ b/pad30/Cont3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28860" windowHeight="13380" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21135" windowHeight="10620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>R</t>
   </si>
@@ -143,9 +143,6 @@
   <si>
     <t>Cadc</t>
   </si>
-  <si>
-    <t>Calculated</t>
-  </si>
 </sst>
 </file>
 
@@ -229,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -250,6 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,40 +336,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>671</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>652</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>646</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>635</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>630</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>625</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>620</c:v>
+                  <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>615</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>611</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,40 +442,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>728</c:v>
+                  <c:v>771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>721</c:v>
+                  <c:v>763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>714</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>707</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>695</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>689</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>683</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>678</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,40 +548,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>788</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>781</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>773</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>766</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>746</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>740</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>734</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>728</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>723</c:v>
+                  <c:v>763</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>717</c:v>
+                  <c:v>757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,40 +654,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>852</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>843</c:v>
+                  <c:v>887</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>835</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>827</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>820</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>813</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>799</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>793</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>787</c:v>
+                  <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>781</c:v>
+                  <c:v>822</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>775</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,40 +760,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>913</c:v>
+                  <c:v>962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>904</c:v>
+                  <c:v>952</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>895</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>887</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>879</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>871</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>864</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>850</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>843</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>837</c:v>
+                  <c:v>881</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>831</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,63 +866,63 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>968</c:v>
+                  <c:v>1022</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>959</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>941</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>932</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>924</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>916</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>909</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>902</c:v>
+                  <c:v>951</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>894</c:v>
+                  <c:v>944</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>888</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>881</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="85371136"/>
-        <c:axId val="85381120"/>
+        <c:axId val="98937088"/>
+        <c:axId val="98947072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85371136"/>
+        <c:axId val="98937088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85381120"/>
+        <c:crossAx val="98947072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85381120"/>
+        <c:axId val="98947072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500"/>
@@ -933,7 +931,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85371136"/>
+        <c:crossAx val="98937088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -946,7 +944,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1026,7 +1024,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
@@ -1541,23 +1539,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="58463744"/>
-        <c:axId val="58462208"/>
+        <c:axId val="107789696"/>
+        <c:axId val="109257856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58463744"/>
+        <c:axId val="107789696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58462208"/>
+        <c:crossAx val="109257856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58462208"/>
+        <c:axId val="109257856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,7 +1563,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58463744"/>
+        <c:crossAx val="107789696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1578,7 +1576,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1942,12 +1940,13 @@
   <dimension ref="A1:AD75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="7" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -2012,31 +2011,31 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="C4">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="D4">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="E4">
-        <v>850</v>
+        <v>894</v>
       </c>
       <c r="F4">
-        <v>911</v>
+        <v>958</v>
       </c>
       <c r="G4">
-        <v>966</v>
+        <v>1018</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>671</v>
+        <v>709</v>
       </c>
       <c r="K4">
-        <v>670</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2044,31 +2043,31 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>671</v>
+        <v>709</v>
       </c>
       <c r="C5">
-        <v>728</v>
+        <v>771</v>
       </c>
       <c r="D5">
-        <v>788</v>
+        <v>832</v>
       </c>
       <c r="E5">
-        <v>852</v>
+        <v>896</v>
       </c>
       <c r="F5">
-        <v>913</v>
+        <v>962</v>
       </c>
       <c r="G5">
-        <v>968</v>
+        <v>1022</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5">
-        <v>665</v>
+        <v>702</v>
       </c>
       <c r="K5">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>4</v>
@@ -2080,37 +2079,37 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>665</v>
+        <v>702</v>
       </c>
       <c r="C6">
-        <v>721</v>
+        <v>763</v>
       </c>
       <c r="D6">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="E6">
-        <v>843</v>
+        <v>887</v>
       </c>
       <c r="F6">
-        <v>904</v>
+        <v>952</v>
       </c>
       <c r="G6">
-        <v>959</v>
+        <v>1012</v>
       </c>
       <c r="I6">
         <v>20</v>
       </c>
       <c r="J6">
-        <v>658</v>
+        <v>695</v>
       </c>
       <c r="K6">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="N6" s="5">
-        <v>0.9905817895298703</v>
+        <v>0.99047788846945939</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2118,37 +2117,37 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>658</v>
+        <v>695</v>
       </c>
       <c r="C7">
-        <v>714</v>
+        <v>756</v>
       </c>
       <c r="D7">
-        <v>773</v>
+        <v>816</v>
       </c>
       <c r="E7">
-        <v>835</v>
+        <v>879</v>
       </c>
       <c r="F7">
-        <v>895</v>
+        <v>943</v>
       </c>
       <c r="G7">
-        <v>950</v>
+        <v>1002</v>
       </c>
       <c r="I7">
         <v>30</v>
       </c>
       <c r="J7">
-        <v>652</v>
+        <v>689</v>
       </c>
       <c r="K7">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="5">
-        <v>0.98125228174820023</v>
+        <v>0.98104644754691883</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2156,37 +2155,37 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>652</v>
+        <v>689</v>
       </c>
       <c r="C8">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="D8">
-        <v>766</v>
+        <v>809</v>
       </c>
       <c r="E8">
-        <v>827</v>
+        <v>871</v>
       </c>
       <c r="F8">
-        <v>887</v>
+        <v>934</v>
       </c>
       <c r="G8">
-        <v>941</v>
+        <v>993</v>
       </c>
       <c r="I8">
         <v>40</v>
       </c>
       <c r="J8">
-        <v>646</v>
+        <v>683</v>
       </c>
       <c r="K8">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="N8" s="5">
-        <v>0.98070886962495973</v>
+        <v>0.9804970692149455</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2194,37 +2193,37 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>646</v>
+        <v>683</v>
       </c>
       <c r="C9">
-        <v>701</v>
+        <v>742</v>
       </c>
       <c r="D9">
-        <v>759</v>
+        <v>801</v>
       </c>
       <c r="E9">
-        <v>820</v>
+        <v>863</v>
       </c>
       <c r="F9">
-        <v>879</v>
+        <v>926</v>
       </c>
       <c r="G9">
-        <v>932</v>
+        <v>984</v>
       </c>
       <c r="I9">
         <v>50</v>
       </c>
       <c r="J9">
-        <v>640</v>
+        <v>677</v>
       </c>
       <c r="K9">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="5">
-        <v>4.828289561223583</v>
+        <v>4.854722488634895</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1">
@@ -2232,31 +2231,31 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>640</v>
+        <v>677</v>
       </c>
       <c r="C10">
-        <v>695</v>
+        <v>736</v>
       </c>
       <c r="D10">
-        <v>752</v>
+        <v>794</v>
       </c>
       <c r="E10">
-        <v>813</v>
+        <v>855</v>
       </c>
       <c r="F10">
-        <v>871</v>
+        <v>918</v>
       </c>
       <c r="G10">
-        <v>924</v>
+        <v>975</v>
       </c>
       <c r="I10">
         <v>60</v>
       </c>
       <c r="J10">
-        <v>635</v>
+        <v>671</v>
       </c>
       <c r="K10">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>9</v>
@@ -2270,31 +2269,31 @@
         <v>60</v>
       </c>
       <c r="B11">
-        <v>635</v>
+        <v>671</v>
       </c>
       <c r="C11">
-        <v>689</v>
+        <v>730</v>
       </c>
       <c r="D11">
-        <v>746</v>
+        <v>787</v>
       </c>
       <c r="E11">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="F11">
-        <v>864</v>
+        <v>910</v>
       </c>
       <c r="G11">
-        <v>916</v>
+        <v>967</v>
       </c>
       <c r="I11">
         <v>70</v>
       </c>
       <c r="J11">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="K11">
-        <v>670</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
@@ -2302,31 +2301,31 @@
         <v>70</v>
       </c>
       <c r="B12">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="C12">
-        <v>683</v>
+        <v>724</v>
       </c>
       <c r="D12">
-        <v>740</v>
+        <v>781</v>
       </c>
       <c r="E12">
-        <v>799</v>
+        <v>842</v>
       </c>
       <c r="F12">
-        <v>857</v>
+        <v>902</v>
       </c>
       <c r="G12">
-        <v>909</v>
+        <v>959</v>
       </c>
       <c r="I12">
         <v>80</v>
       </c>
       <c r="J12">
-        <v>625</v>
+        <v>660</v>
       </c>
       <c r="K12">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="M12" t="s">
         <v>10</v>
@@ -2337,31 +2336,31 @@
         <v>80</v>
       </c>
       <c r="B13">
-        <v>625</v>
+        <v>660</v>
       </c>
       <c r="C13">
-        <v>678</v>
+        <v>718</v>
       </c>
       <c r="D13">
-        <v>734</v>
+        <v>775</v>
       </c>
       <c r="E13">
-        <v>793</v>
+        <v>835</v>
       </c>
       <c r="F13">
-        <v>850</v>
+        <v>895</v>
       </c>
       <c r="G13">
-        <v>902</v>
+        <v>951</v>
       </c>
       <c r="I13">
         <v>90</v>
       </c>
       <c r="J13">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="K13">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7" t="s">
@@ -2385,31 +2384,31 @@
         <v>90</v>
       </c>
       <c r="B14">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="C14">
-        <v>672</v>
+        <v>712</v>
       </c>
       <c r="D14">
-        <v>728</v>
+        <v>768</v>
       </c>
       <c r="E14">
-        <v>787</v>
+        <v>828</v>
       </c>
       <c r="F14">
-        <v>843</v>
+        <v>888</v>
       </c>
       <c r="G14">
-        <v>894</v>
+        <v>944</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="K14">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>11</v>
@@ -2418,16 +2417,16 @@
         <v>2</v>
       </c>
       <c r="O14" s="5">
-        <v>84191.445773995583</v>
+        <v>84173.785199525635</v>
       </c>
       <c r="P14" s="5">
-        <v>42095.722886997792</v>
+        <v>42086.892599762818</v>
       </c>
       <c r="Q14" s="5">
-        <v>1805.7239428090386</v>
+        <v>1785.7392446167332</v>
       </c>
       <c r="R14" s="5">
-        <v>2.6104803355227996E-60</v>
+        <v>3.8047527659720929E-60</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2435,31 +2434,31 @@
         <v>100</v>
       </c>
       <c r="B15">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="C15">
-        <v>667</v>
+        <v>707</v>
       </c>
       <c r="D15">
-        <v>723</v>
+        <v>763</v>
       </c>
       <c r="E15">
-        <v>781</v>
+        <v>822</v>
       </c>
       <c r="F15">
-        <v>837</v>
+        <v>881</v>
       </c>
       <c r="G15">
-        <v>888</v>
+        <v>937</v>
       </c>
       <c r="I15">
         <v>110</v>
       </c>
       <c r="J15">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="K15">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>12</v>
@@ -2468,10 +2467,10 @@
         <v>69</v>
       </c>
       <c r="O15" s="5">
-        <v>1608.5542260044228</v>
+        <v>1626.2148004743594</v>
       </c>
       <c r="P15" s="5">
-        <v>23.312380087020621</v>
+        <v>23.568330441657384</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -2481,31 +2480,31 @@
         <v>110</v>
       </c>
       <c r="B16">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="C16">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="D16">
-        <v>717</v>
+        <v>757</v>
       </c>
       <c r="E16">
-        <v>775</v>
+        <v>817</v>
       </c>
       <c r="F16">
-        <v>831</v>
+        <v>875</v>
       </c>
       <c r="G16">
-        <v>881</v>
+        <v>930</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>728</v>
+        <v>771</v>
       </c>
       <c r="K16">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>13</v>
@@ -2525,10 +2524,10 @@
         <v>10</v>
       </c>
       <c r="J17">
-        <v>721</v>
+        <v>763</v>
       </c>
       <c r="K17">
-        <v>726</v>
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="9:30">
@@ -2536,10 +2535,10 @@
         <v>20</v>
       </c>
       <c r="J18">
-        <v>714</v>
+        <v>756</v>
       </c>
       <c r="K18">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7" t="s">
@@ -2572,37 +2571,37 @@
         <v>30</v>
       </c>
       <c r="J19">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="K19">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="N19" s="5">
-        <v>53.862192930284664</v>
+        <v>56.591629861205092</v>
       </c>
       <c r="O19" s="5">
-        <v>4.5831722344383303</v>
+        <v>4.6407443104114945</v>
       </c>
       <c r="P19" s="5">
-        <v>11.752164259845998</v>
+        <v>12.194515809509685</v>
       </c>
       <c r="Q19" s="5">
-        <v>3.9539944416665328E-18</v>
+        <v>6.9930759861749193E-19</v>
       </c>
       <c r="R19" s="5">
-        <v>44.719014609356286</v>
+        <v>47.333598392718059</v>
       </c>
       <c r="S19" s="5">
-        <v>63.005371251213042</v>
+        <v>65.849661329692125</v>
       </c>
       <c r="T19" s="5">
-        <v>44.719014609356286</v>
+        <v>47.333598392718059</v>
       </c>
       <c r="U19" s="5">
-        <v>63.005371251213042</v>
+        <v>65.849661329692125</v>
       </c>
       <c r="V19" s="3"/>
     </row>
@@ -2611,37 +2610,37 @@
         <v>40</v>
       </c>
       <c r="J20">
-        <v>701</v>
+        <v>742</v>
       </c>
       <c r="K20">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="N20" s="5">
-        <v>-1.4662390416927147</v>
+        <v>-1.391187260549138</v>
       </c>
       <c r="O20" s="5">
-        <v>2.4398554838395359E-2</v>
+        <v>2.3278852722974676E-2</v>
       </c>
       <c r="P20" s="5">
-        <v>-60.095323325680468</v>
+        <v>-59.761848107580015</v>
       </c>
       <c r="Q20" s="5">
-        <v>2.5214788815415387E-61</v>
+        <v>3.6754083644638866E-61</v>
       </c>
       <c r="R20" s="5">
-        <v>-1.5149128261916158</v>
+        <v>-1.437627300474644</v>
       </c>
       <c r="S20" s="5">
-        <v>-1.4175652571938135</v>
+        <v>-1.3447472206236319</v>
       </c>
       <c r="T20" s="5">
-        <v>-1.5149128261916158</v>
+        <v>-1.437627300474644</v>
       </c>
       <c r="U20" s="5">
-        <v>-1.4175652571938135</v>
+        <v>-1.3447472206236319</v>
       </c>
       <c r="V20" s="3"/>
     </row>
@@ -2650,37 +2649,37 @@
         <v>50</v>
       </c>
       <c r="J21">
-        <v>695</v>
+        <v>736</v>
       </c>
       <c r="K21">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="N21" s="6">
-        <v>1.4003894866751618</v>
+        <v>1.3276436063462489</v>
       </c>
       <c r="O21" s="6">
-        <v>2.3956283516758159E-2</v>
+        <v>2.2848703499073794E-2</v>
       </c>
       <c r="P21" s="6">
-        <v>58.456040800132719</v>
+        <v>58.105861735221296</v>
       </c>
       <c r="Q21" s="6">
-        <v>1.63942434388111E-60</v>
+        <v>2.4615528004511984E-60</v>
       </c>
       <c r="R21" s="6">
-        <v>1.352598009310515</v>
+        <v>1.2820616906320004</v>
       </c>
       <c r="S21" s="6">
-        <v>1.4481809640398087</v>
+        <v>1.3732255220604974</v>
       </c>
       <c r="T21" s="6">
-        <v>1.352598009310515</v>
+        <v>1.2820616906320004</v>
       </c>
       <c r="U21" s="6">
-        <v>1.4481809640398087</v>
+        <v>1.3732255220604974</v>
       </c>
       <c r="V21" s="3"/>
     </row>
@@ -2689,10 +2688,10 @@
         <v>60</v>
       </c>
       <c r="J22">
-        <v>689</v>
+        <v>730</v>
       </c>
       <c r="K22">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="V22" s="3"/>
     </row>
@@ -2701,21 +2700,18 @@
         <v>70</v>
       </c>
       <c r="J23">
-        <v>683</v>
+        <v>724</v>
       </c>
       <c r="K23">
-        <v>726</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="1">
+        <v>768</v>
+      </c>
+      <c r="N23">
         <v>11</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23">
         <v>12</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23">
         <v>13</v>
       </c>
       <c r="V23" s="3"/>
@@ -2734,32 +2730,41 @@
         <v>80</v>
       </c>
       <c r="J24">
-        <v>678</v>
+        <v>718</v>
       </c>
       <c r="K24">
-        <v>726</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="N24">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="Q24">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="T24">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24">
-        <v>850</v>
+        <v>894</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X36" si="0">b_c*W24+b_v*adc_14+b_0</f>
+        <v>-0.21639699617776387</v>
       </c>
       <c r="Z24">
-        <v>911</v>
+        <v>958</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" ref="AA24:AA36" si="1">b_c*Z24+b_v*adc_15+b_0</f>
+        <v>-4.2831908651626236</v>
       </c>
       <c r="AC24">
-        <v>966</v>
+        <v>1018</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" ref="AD24:AD36" si="2">b_c*AC24+b_v*adc_16+b_0</f>
+        <v>-8.0958101173359864</v>
       </c>
     </row>
     <row r="25" spans="9:30">
@@ -2767,56 +2772,56 @@
         <v>90</v>
       </c>
       <c r="J25">
-        <v>672</v>
+        <v>712</v>
       </c>
       <c r="K25">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>671</v>
+        <v>709</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25:O36" si="0">b_c*N25+b_v*adc_11+b_0</f>
-        <v>8.2767520268315593</v>
+        <f t="shared" ref="O24:O36" si="3">b_c*N25+b_v*adc_11+b_0</f>
+        <v>7.5562482123179961</v>
       </c>
       <c r="Q25">
-        <v>728</v>
+        <v>771</v>
       </c>
       <c r="R25">
-        <f t="shared" ref="R25:R36" si="1">b_c*Q25+b_v*adc_12+b_0</f>
-        <v>3.1229379041557195</v>
+        <f>b_c*Q25+b_v*adc_12+b_0</f>
+        <v>3.6165416517387712</v>
       </c>
       <c r="T25">
-        <v>788</v>
+        <v>832</v>
       </c>
       <c r="U25">
-        <f t="shared" ref="U25:U36" si="2">b_c*T25+b_v*adc_13+b_0</f>
-        <v>0.5723540897777184</v>
+        <f t="shared" ref="U25:U36" si="4">b_c*T25+b_v*adc_13+b_0</f>
+        <v>-0.25962125463729535</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25">
-        <v>852</v>
+        <v>896</v>
       </c>
       <c r="X25">
-        <f t="shared" ref="X25:X36" si="3">b_c*W25+b_v*adc_14+b_0</f>
-        <v>-5.042406918020788</v>
+        <f t="shared" si="0"/>
+        <v>-2.9987715172760545</v>
       </c>
       <c r="Z25">
-        <v>913</v>
+        <v>962</v>
       </c>
       <c r="AA25">
-        <f t="shared" ref="AA25:AA36" si="4">b_c*Z25+b_v*adc_15+b_0</f>
-        <v>-9.0592297740913637</v>
+        <f t="shared" si="1"/>
+        <v>-9.8479399073592049</v>
       </c>
       <c r="AC25">
-        <v>968</v>
+        <v>1022</v>
       </c>
       <c r="AD25">
-        <f t="shared" ref="AD25:AD36" si="5">b_c*AC25+b_v*adc_16+b_0</f>
-        <v>-12.680955300056667</v>
+        <f t="shared" si="2"/>
+        <v>-13.660559159532568</v>
       </c>
     </row>
     <row r="26" spans="9:30">
@@ -2824,56 +2829,56 @@
         <v>100</v>
       </c>
       <c r="J26">
-        <v>667</v>
+        <v>707</v>
       </c>
       <c r="K26">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="M26">
         <v>10</v>
       </c>
       <c r="N26">
-        <v>665</v>
+        <v>702</v>
       </c>
       <c r="O26">
-        <f t="shared" si="0"/>
-        <v>17.074186276987803</v>
+        <f t="shared" si="3"/>
+        <v>17.2945590361619</v>
       </c>
       <c r="Q26">
-        <v>721</v>
+        <v>763</v>
       </c>
       <c r="R26">
-        <f t="shared" si="1"/>
-        <v>13.386611196004765</v>
+        <f t="shared" ref="R25:R36" si="5">b_c*Q26+b_v*adc_12+b_0</f>
+        <v>14.746039736131934</v>
       </c>
       <c r="T26">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="U26">
-        <f t="shared" si="2"/>
-        <v>10.836027381626764</v>
+        <f t="shared" si="4"/>
+        <v>10.869876829755867</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26">
-        <v>843</v>
+        <v>887</v>
       </c>
       <c r="X26">
-        <f t="shared" si="3"/>
-        <v>8.1537444572136337</v>
+        <f t="shared" si="0"/>
+        <v>9.5219138276661397</v>
       </c>
       <c r="Z26">
-        <v>904</v>
+        <v>952</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="4"/>
-        <v>4.1369216011430581</v>
+        <f t="shared" si="1"/>
+        <v>4.0639326981322483</v>
       </c>
       <c r="AC26">
-        <v>959</v>
+        <v>1012</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="5"/>
-        <v>0.51519607517775512</v>
+        <f t="shared" si="2"/>
+        <v>0.2513134459588855</v>
       </c>
     </row>
     <row r="27" spans="9:30">
@@ -2881,56 +2886,56 @@
         <v>110</v>
       </c>
       <c r="J27">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="K27">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="M27">
         <v>20</v>
       </c>
       <c r="N27">
-        <v>658</v>
+        <v>695</v>
       </c>
       <c r="O27">
-        <f t="shared" si="0"/>
-        <v>27.337859568836848</v>
+        <f t="shared" si="3"/>
+        <v>27.032869860005917</v>
       </c>
       <c r="Q27">
-        <v>714</v>
+        <v>756</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
-        <v>23.65028448785381</v>
+        <f t="shared" si="5"/>
+        <v>24.484350559975837</v>
       </c>
       <c r="T27">
-        <v>773</v>
+        <v>816</v>
       </c>
       <c r="U27">
-        <f t="shared" si="2"/>
-        <v>22.565939715168497</v>
+        <f t="shared" si="4"/>
+        <v>21.999374914148802</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27">
-        <v>835</v>
+        <v>879</v>
       </c>
       <c r="X27">
-        <f t="shared" si="3"/>
-        <v>19.883656790755367</v>
+        <f t="shared" si="0"/>
+        <v>20.651411912059302</v>
       </c>
       <c r="Z27">
-        <v>895</v>
+        <v>943</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="4"/>
-        <v>17.33307297637748</v>
+        <f t="shared" si="1"/>
+        <v>16.584618043074443</v>
       </c>
       <c r="AC27">
-        <v>950</v>
+        <v>1002</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="5"/>
-        <v>13.711347450412177</v>
+        <f t="shared" si="2"/>
+        <v>14.163186051450111</v>
       </c>
     </row>
     <row r="28" spans="9:30">
@@ -2938,56 +2943,56 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>788</v>
+        <v>832</v>
       </c>
       <c r="K28">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="M28">
         <v>30</v>
       </c>
       <c r="N28">
-        <v>652</v>
+        <v>689</v>
       </c>
       <c r="O28">
-        <f t="shared" si="0"/>
-        <v>36.135293818993091</v>
+        <f t="shared" si="3"/>
+        <v>35.379993423300675</v>
       </c>
       <c r="Q28">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
-        <v>33.913957779702855</v>
+        <f t="shared" si="5"/>
+        <v>34.222661383819968</v>
       </c>
       <c r="T28">
-        <v>766</v>
+        <v>809</v>
       </c>
       <c r="U28">
-        <f t="shared" si="2"/>
-        <v>32.829613007017542</v>
+        <f t="shared" si="4"/>
+        <v>31.737685737992933</v>
       </c>
       <c r="V28" s="3"/>
       <c r="W28">
-        <v>827</v>
+        <v>871</v>
       </c>
       <c r="X28">
-        <f t="shared" si="3"/>
-        <v>31.613569124297101</v>
+        <f t="shared" si="0"/>
+        <v>31.780909996452465</v>
       </c>
       <c r="Z28">
-        <v>887</v>
+        <v>934</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="4"/>
-        <v>29.062985309919213</v>
+        <f t="shared" si="1"/>
+        <v>29.105303388016637</v>
       </c>
       <c r="AC28">
-        <v>941</v>
+        <v>993</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="5"/>
-        <v>26.907498825646599</v>
+        <f t="shared" si="2"/>
+        <v>26.683871396392533</v>
       </c>
     </row>
     <row r="29" spans="9:30">
@@ -2995,56 +3000,56 @@
         <v>10</v>
       </c>
       <c r="J29">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="K29">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="M29">
         <v>40</v>
       </c>
       <c r="N29">
-        <v>646</v>
+        <v>683</v>
       </c>
       <c r="O29">
-        <f t="shared" si="0"/>
-        <v>44.932728069149448</v>
+        <f t="shared" si="3"/>
+        <v>43.727116986595547</v>
       </c>
       <c r="Q29">
-        <v>701</v>
+        <v>742</v>
       </c>
       <c r="R29">
-        <f t="shared" si="1"/>
-        <v>42.711392029859212</v>
+        <f t="shared" si="5"/>
+        <v>43.960972207663872</v>
       </c>
       <c r="T29">
-        <v>759</v>
+        <v>801</v>
       </c>
       <c r="U29">
-        <f t="shared" si="2"/>
-        <v>43.093286298866587</v>
+        <f t="shared" si="4"/>
+        <v>42.867183822385869</v>
       </c>
       <c r="V29" s="4"/>
       <c r="W29">
-        <v>820</v>
+        <v>863</v>
       </c>
       <c r="X29">
-        <f t="shared" si="3"/>
-        <v>41.877242416146146</v>
+        <f t="shared" si="0"/>
+        <v>42.9104080808454</v>
       </c>
       <c r="Z29">
-        <v>879</v>
+        <v>926</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="4"/>
-        <v>40.792897643460947</v>
+        <f t="shared" si="1"/>
+        <v>40.234801472409799</v>
       </c>
       <c r="AC29">
-        <v>932</v>
+        <v>984</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="5"/>
-        <v>40.10365020088102</v>
+        <f t="shared" si="2"/>
+        <v>39.204556741334727</v>
       </c>
     </row>
     <row r="30" spans="9:30">
@@ -3052,55 +3057,55 @@
         <v>20</v>
       </c>
       <c r="J30">
-        <v>773</v>
+        <v>816</v>
       </c>
       <c r="K30">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="M30">
         <v>50</v>
       </c>
       <c r="N30">
-        <v>640</v>
+        <v>677</v>
       </c>
       <c r="O30">
+        <f t="shared" si="3"/>
+        <v>52.074240549890419</v>
+      </c>
+      <c r="Q30">
+        <v>736</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="5"/>
+        <v>52.30809577095863</v>
+      </c>
+      <c r="T30">
+        <v>794</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="4"/>
+        <v>52.605494646229999</v>
+      </c>
+      <c r="W30">
+        <v>855</v>
+      </c>
+      <c r="X30">
         <f t="shared" si="0"/>
-        <v>53.730162319305691</v>
-      </c>
-      <c r="Q30">
-        <v>695</v>
-      </c>
-      <c r="R30">
+        <v>54.039906165238563</v>
+      </c>
+      <c r="Z30">
+        <v>918</v>
+      </c>
+      <c r="AA30">
         <f t="shared" si="1"/>
-        <v>51.508826280015342</v>
-      </c>
-      <c r="T30">
-        <v>752</v>
-      </c>
-      <c r="U30">
+        <v>51.364299556802962</v>
+      </c>
+      <c r="AC30">
+        <v>975</v>
+      </c>
+      <c r="AD30">
         <f t="shared" si="2"/>
-        <v>53.356959590715633</v>
-      </c>
-      <c r="W30">
-        <v>813</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="3"/>
-        <v>52.140915707995191</v>
-      </c>
-      <c r="Z30">
-        <v>871</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="4"/>
-        <v>52.52280997700268</v>
-      </c>
-      <c r="AC30">
-        <v>924</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" si="5"/>
-        <v>51.833562534422754</v>
+        <v>51.725242086276921</v>
       </c>
     </row>
     <row r="31" spans="9:30">
@@ -3108,55 +3113,55 @@
         <v>30</v>
       </c>
       <c r="J31">
-        <v>766</v>
+        <v>809</v>
       </c>
       <c r="K31">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="M31">
         <v>60</v>
       </c>
       <c r="N31">
-        <v>635</v>
+        <v>671</v>
       </c>
       <c r="O31">
+        <f t="shared" si="3"/>
+        <v>60.421364113185177</v>
+      </c>
+      <c r="Q31">
+        <v>730</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="5"/>
+        <v>60.655219334253502</v>
+      </c>
+      <c r="T31">
+        <v>787</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="4"/>
+        <v>62.343805470073903</v>
+      </c>
+      <c r="W31">
+        <v>848</v>
+      </c>
+      <c r="X31">
         <f t="shared" si="0"/>
-        <v>61.061357527769246</v>
-      </c>
-      <c r="Q31">
-        <v>689</v>
-      </c>
-      <c r="R31">
+        <v>63.778216989082466</v>
+      </c>
+      <c r="Z31">
+        <v>910</v>
+      </c>
+      <c r="AA31">
         <f t="shared" si="1"/>
-        <v>60.306260530171699</v>
-      </c>
-      <c r="T31">
-        <v>746</v>
-      </c>
-      <c r="U31">
+        <v>62.493797641195897</v>
+      </c>
+      <c r="AC31">
+        <v>967</v>
+      </c>
+      <c r="AD31">
         <f t="shared" si="2"/>
-        <v>62.154393840871762</v>
-      </c>
-      <c r="W31">
-        <v>806</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="3"/>
-        <v>62.404588999844009</v>
-      </c>
-      <c r="Z31">
-        <v>864</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="4"/>
-        <v>62.786483268851725</v>
-      </c>
-      <c r="AC31">
-        <v>916</v>
-      </c>
-      <c r="AD31">
-        <f t="shared" si="5"/>
-        <v>63.563474867964487</v>
+        <v>62.854740170670084</v>
       </c>
     </row>
     <row r="32" spans="9:30">
@@ -3164,55 +3169,55 @@
         <v>40</v>
       </c>
       <c r="J32">
-        <v>759</v>
+        <v>801</v>
       </c>
       <c r="K32">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="M32">
         <v>70</v>
       </c>
       <c r="N32">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="O32">
+        <f t="shared" si="3"/>
+        <v>67.377300415930904</v>
+      </c>
+      <c r="Q32">
+        <v>724</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="5"/>
+        <v>69.002342897548374</v>
+      </c>
+      <c r="T32">
+        <v>781</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="4"/>
+        <v>70.690929033368775</v>
+      </c>
+      <c r="W32">
+        <v>842</v>
+      </c>
+      <c r="X32">
         <f t="shared" si="0"/>
-        <v>68.392552736232915</v>
-      </c>
-      <c r="Q32">
-        <v>683</v>
-      </c>
-      <c r="R32">
+        <v>72.125340552377338</v>
+      </c>
+      <c r="Z32">
+        <v>902</v>
+      </c>
+      <c r="AA32">
         <f t="shared" si="1"/>
-        <v>69.103694780327942</v>
-      </c>
-      <c r="T32">
-        <v>740</v>
-      </c>
-      <c r="U32">
+        <v>73.62329572558906</v>
+      </c>
+      <c r="AC32">
+        <v>959</v>
+      </c>
+      <c r="AD32">
         <f t="shared" si="2"/>
-        <v>70.951828091028119</v>
-      </c>
-      <c r="W32">
-        <v>799</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="3"/>
-        <v>72.668262291693054</v>
-      </c>
-      <c r="Z32">
-        <v>857</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="4"/>
-        <v>73.050156560700543</v>
-      </c>
-      <c r="AC32">
-        <v>909</v>
-      </c>
-      <c r="AD32">
-        <f t="shared" si="5"/>
-        <v>73.827148159813305</v>
+        <v>73.984238255063019</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3220,55 +3225,55 @@
         <v>50</v>
       </c>
       <c r="J33">
-        <v>752</v>
+        <v>794</v>
       </c>
       <c r="K33">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="M33">
         <v>80</v>
       </c>
       <c r="N33">
-        <v>625</v>
+        <v>660</v>
       </c>
       <c r="O33">
+        <f t="shared" si="3"/>
+        <v>75.724423979225776</v>
+      </c>
+      <c r="Q33">
+        <v>718</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="5"/>
+        <v>77.349466460843132</v>
+      </c>
+      <c r="T33">
+        <v>775</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>79.03805259666342</v>
+      </c>
+      <c r="W33">
+        <v>835</v>
+      </c>
+      <c r="X33">
         <f t="shared" si="0"/>
-        <v>75.72374794469647</v>
-      </c>
-      <c r="Q33">
-        <v>678</v>
-      </c>
-      <c r="R33">
+        <v>81.863651376221242</v>
+      </c>
+      <c r="Z33">
+        <v>895</v>
+      </c>
+      <c r="AA33">
         <f t="shared" si="1"/>
-        <v>76.434889988791497</v>
-      </c>
-      <c r="T33">
-        <v>734</v>
-      </c>
-      <c r="U33">
+        <v>83.361606549432963</v>
+      </c>
+      <c r="AC33">
+        <v>951</v>
+      </c>
+      <c r="AD33">
         <f t="shared" si="2"/>
-        <v>79.749262341184476</v>
-      </c>
-      <c r="W33">
-        <v>793</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="3"/>
-        <v>81.465696541849411</v>
-      </c>
-      <c r="Z33">
-        <v>850</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="4"/>
-        <v>83.313829852549588</v>
-      </c>
-      <c r="AC33">
-        <v>902</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" si="5"/>
-        <v>84.09082145166235</v>
+        <v>85.113736339456182</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3276,55 +3281,55 @@
         <v>60</v>
       </c>
       <c r="J34">
-        <v>746</v>
+        <v>787</v>
       </c>
       <c r="K34">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="M34">
         <v>90</v>
       </c>
       <c r="N34">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="O34">
+        <f t="shared" si="3"/>
+        <v>82.680360281971389</v>
+      </c>
+      <c r="Q34">
+        <v>712</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="5"/>
+        <v>85.696590024138004</v>
+      </c>
+      <c r="T34">
+        <v>768</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>88.77636342050755</v>
+      </c>
+      <c r="W34">
+        <v>828</v>
+      </c>
+      <c r="X34">
         <f t="shared" si="0"/>
-        <v>83.054943153160025</v>
-      </c>
-      <c r="Q34">
-        <v>672</v>
-      </c>
-      <c r="R34">
+        <v>91.601962200065373</v>
+      </c>
+      <c r="Z34">
+        <v>888</v>
+      </c>
+      <c r="AA34">
         <f t="shared" si="1"/>
-        <v>85.232324238947854</v>
-      </c>
-      <c r="T34">
-        <v>728</v>
-      </c>
-      <c r="U34">
+        <v>93.099917373277094</v>
+      </c>
+      <c r="AC34">
+        <v>944</v>
+      </c>
+      <c r="AD34">
         <f t="shared" si="2"/>
-        <v>88.546696591340606</v>
-      </c>
-      <c r="W34">
-        <v>787</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="3"/>
-        <v>90.263130792005768</v>
-      </c>
-      <c r="Z34">
-        <v>843</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="4"/>
-        <v>93.577503144398634</v>
-      </c>
-      <c r="AC34">
-        <v>894</v>
-      </c>
-      <c r="AD34">
-        <f t="shared" si="5"/>
-        <v>95.820733785204084</v>
+        <v>94.852047163300085</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3332,55 +3337,55 @@
         <v>70</v>
       </c>
       <c r="J35">
-        <v>740</v>
+        <v>781</v>
       </c>
       <c r="K35">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="M35">
         <v>100</v>
       </c>
       <c r="N35">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="O35">
+        <f t="shared" si="3"/>
+        <v>89.636296584717115</v>
+      </c>
+      <c r="Q35">
+        <v>707</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>92.652526326883731</v>
+      </c>
+      <c r="T35">
+        <v>763</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>95.732299723253163</v>
+      </c>
+      <c r="W35">
+        <v>822</v>
+      </c>
+      <c r="X35">
         <f t="shared" si="0"/>
-        <v>90.38613836162358</v>
-      </c>
-      <c r="Q35">
-        <v>667</v>
-      </c>
-      <c r="R35">
+        <v>99.949085763360017</v>
+      </c>
+      <c r="Z35">
+        <v>881</v>
+      </c>
+      <c r="AA35">
         <f t="shared" si="1"/>
-        <v>92.563519447411409</v>
-      </c>
-      <c r="T35">
-        <v>723</v>
-      </c>
-      <c r="U35">
+        <v>102.838228197121</v>
+      </c>
+      <c r="AC35">
+        <v>937</v>
+      </c>
+      <c r="AD35">
         <f t="shared" si="2"/>
-        <v>95.877891799804274</v>
-      </c>
-      <c r="W35">
-        <v>781</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="3"/>
-        <v>99.060565042161898</v>
-      </c>
-      <c r="Z35">
-        <v>837</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" si="4"/>
-        <v>102.37493739455499</v>
-      </c>
-      <c r="AC35">
-        <v>888</v>
-      </c>
-      <c r="AD35">
-        <f t="shared" si="5"/>
-        <v>104.61816803536044</v>
+        <v>104.59035798714422</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3392,56 +3397,56 @@
         <v>80</v>
       </c>
       <c r="J36">
-        <v>734</v>
+        <v>775</v>
       </c>
       <c r="K36">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36">
         <v>110</v>
       </c>
       <c r="N36">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="O36">
+        <f t="shared" si="3"/>
+        <v>96.592232887462842</v>
+      </c>
+      <c r="Q36">
+        <v>701</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="5"/>
+        <v>100.99964989017849</v>
+      </c>
+      <c r="T36">
+        <v>757</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>104.07942328654804</v>
+      </c>
+      <c r="W36">
+        <v>817</v>
+      </c>
+      <c r="X36">
         <f t="shared" si="0"/>
-        <v>96.251094528394447</v>
-      </c>
-      <c r="Q36">
-        <v>662</v>
-      </c>
-      <c r="R36">
+        <v>106.90502206610586</v>
+      </c>
+      <c r="Z36">
+        <v>875</v>
+      </c>
+      <c r="AA36">
         <f t="shared" si="1"/>
-        <v>99.894714655874964</v>
-      </c>
-      <c r="T36">
-        <v>717</v>
-      </c>
-      <c r="U36">
+        <v>111.18535176041587</v>
+      </c>
+      <c r="AC36">
+        <v>930</v>
+      </c>
+      <c r="AD36">
         <f t="shared" si="2"/>
-        <v>104.67532604996063</v>
-      </c>
-      <c r="W36">
-        <v>775</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="3"/>
-        <v>107.85799929231825</v>
-      </c>
-      <c r="Z36">
-        <v>831</v>
-      </c>
-      <c r="AA36">
-        <f t="shared" si="4"/>
-        <v>111.17237164471112</v>
-      </c>
-      <c r="AC36">
-        <v>881</v>
-      </c>
-      <c r="AD36">
-        <f t="shared" si="5"/>
-        <v>114.88184132720949</v>
+        <v>114.32866881098812</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3449,10 +3454,10 @@
         <v>90</v>
       </c>
       <c r="J37">
-        <v>728</v>
+        <v>768</v>
       </c>
       <c r="K37">
-        <v>787</v>
+        <v>829</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -3460,10 +3465,10 @@
         <v>100</v>
       </c>
       <c r="J38">
-        <v>723</v>
+        <v>763</v>
       </c>
       <c r="K38">
-        <v>787</v>
+        <v>829</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -3471,10 +3476,10 @@
         <v>110</v>
       </c>
       <c r="J39">
-        <v>717</v>
+        <v>757</v>
       </c>
       <c r="K39">
-        <v>787</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -3482,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>852</v>
+        <v>896</v>
       </c>
       <c r="K40">
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -3493,10 +3498,10 @@
         <v>10</v>
       </c>
       <c r="J41">
-        <v>843</v>
+        <v>887</v>
       </c>
       <c r="K41">
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -3504,10 +3509,10 @@
         <v>20</v>
       </c>
       <c r="J42">
-        <v>835</v>
+        <v>879</v>
       </c>
       <c r="K42">
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -3515,10 +3520,10 @@
         <v>30</v>
       </c>
       <c r="J43">
-        <v>827</v>
+        <v>871</v>
       </c>
       <c r="K43">
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -3526,10 +3531,10 @@
         <v>40</v>
       </c>
       <c r="J44">
-        <v>820</v>
+        <v>863</v>
       </c>
       <c r="K44">
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -3537,10 +3542,10 @@
         <v>50</v>
       </c>
       <c r="J45">
-        <v>813</v>
+        <v>855</v>
       </c>
       <c r="K45">
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -3548,10 +3553,10 @@
         <v>60</v>
       </c>
       <c r="J46">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="K46">
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -3559,10 +3564,10 @@
         <v>70</v>
       </c>
       <c r="J47">
-        <v>799</v>
+        <v>842</v>
       </c>
       <c r="K47">
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -3570,10 +3575,10 @@
         <v>80</v>
       </c>
       <c r="J48">
-        <v>793</v>
+        <v>835</v>
       </c>
       <c r="K48">
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="49" spans="9:11">
@@ -3581,10 +3586,10 @@
         <v>90</v>
       </c>
       <c r="J49">
-        <v>787</v>
+        <v>828</v>
       </c>
       <c r="K49">
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="50" spans="9:11">
@@ -3592,10 +3597,10 @@
         <v>100</v>
       </c>
       <c r="J50">
-        <v>781</v>
+        <v>822</v>
       </c>
       <c r="K50">
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="51" spans="9:11">
@@ -3603,10 +3608,10 @@
         <v>110</v>
       </c>
       <c r="J51">
-        <v>775</v>
+        <v>817</v>
       </c>
       <c r="K51">
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="52" spans="9:11">
@@ -3614,10 +3619,10 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>913</v>
+        <v>962</v>
       </c>
       <c r="K52">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="53" spans="9:11">
@@ -3625,10 +3630,10 @@
         <v>10</v>
       </c>
       <c r="J53">
-        <v>904</v>
+        <v>952</v>
       </c>
       <c r="K53">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="54" spans="9:11">
@@ -3636,10 +3641,10 @@
         <v>20</v>
       </c>
       <c r="J54">
-        <v>895</v>
+        <v>943</v>
       </c>
       <c r="K54">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="55" spans="9:11">
@@ -3647,10 +3652,10 @@
         <v>30</v>
       </c>
       <c r="J55">
-        <v>887</v>
+        <v>934</v>
       </c>
       <c r="K55">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="56" spans="9:11">
@@ -3658,10 +3663,10 @@
         <v>40</v>
       </c>
       <c r="J56">
-        <v>879</v>
+        <v>926</v>
       </c>
       <c r="K56">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="57" spans="9:11">
@@ -3669,10 +3674,10 @@
         <v>50</v>
       </c>
       <c r="J57">
-        <v>871</v>
+        <v>918</v>
       </c>
       <c r="K57">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="58" spans="9:11">
@@ -3680,10 +3685,10 @@
         <v>60</v>
       </c>
       <c r="J58">
-        <v>864</v>
+        <v>910</v>
       </c>
       <c r="K58">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="59" spans="9:11">
@@ -3691,10 +3696,10 @@
         <v>70</v>
       </c>
       <c r="J59">
-        <v>857</v>
+        <v>902</v>
       </c>
       <c r="K59">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="60" spans="9:11">
@@ -3702,10 +3707,10 @@
         <v>80</v>
       </c>
       <c r="J60">
-        <v>850</v>
+        <v>895</v>
       </c>
       <c r="K60">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="61" spans="9:11">
@@ -3713,10 +3718,10 @@
         <v>90</v>
       </c>
       <c r="J61">
-        <v>843</v>
+        <v>888</v>
       </c>
       <c r="K61">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="62" spans="9:11">
@@ -3724,10 +3729,10 @@
         <v>100</v>
       </c>
       <c r="J62">
-        <v>837</v>
+        <v>881</v>
       </c>
       <c r="K62">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="63" spans="9:11">
@@ -3735,10 +3740,10 @@
         <v>110</v>
       </c>
       <c r="J63">
-        <v>831</v>
+        <v>875</v>
       </c>
       <c r="K63">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="64" spans="9:11">
@@ -3746,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>968</v>
-      </c>
-      <c r="K64">
-        <v>966</v>
+        <v>1022</v>
+      </c>
+      <c r="K64" s="10">
+        <v>1018</v>
       </c>
     </row>
     <row r="65" spans="9:11">
@@ -3757,10 +3762,10 @@
         <v>10</v>
       </c>
       <c r="J65">
-        <v>959</v>
-      </c>
-      <c r="K65">
-        <v>966</v>
+        <v>1012</v>
+      </c>
+      <c r="K65" s="10">
+        <v>1018</v>
       </c>
     </row>
     <row r="66" spans="9:11">
@@ -3768,10 +3773,10 @@
         <v>20</v>
       </c>
       <c r="J66">
-        <v>950</v>
-      </c>
-      <c r="K66">
-        <v>966</v>
+        <v>1002</v>
+      </c>
+      <c r="K66" s="10">
+        <v>1018</v>
       </c>
     </row>
     <row r="67" spans="9:11">
@@ -3779,10 +3784,10 @@
         <v>30</v>
       </c>
       <c r="J67">
-        <v>941</v>
-      </c>
-      <c r="K67">
-        <v>966</v>
+        <v>993</v>
+      </c>
+      <c r="K67" s="10">
+        <v>1018</v>
       </c>
     </row>
     <row r="68" spans="9:11">
@@ -3790,10 +3795,10 @@
         <v>40</v>
       </c>
       <c r="J68">
-        <v>932</v>
-      </c>
-      <c r="K68">
-        <v>966</v>
+        <v>984</v>
+      </c>
+      <c r="K68" s="10">
+        <v>1018</v>
       </c>
     </row>
     <row r="69" spans="9:11">
@@ -3801,10 +3806,10 @@
         <v>50</v>
       </c>
       <c r="J69">
-        <v>924</v>
-      </c>
-      <c r="K69">
-        <v>966</v>
+        <v>975</v>
+      </c>
+      <c r="K69" s="10">
+        <v>1018</v>
       </c>
     </row>
     <row r="70" spans="9:11">
@@ -3812,10 +3817,10 @@
         <v>60</v>
       </c>
       <c r="J70">
-        <v>916</v>
-      </c>
-      <c r="K70">
-        <v>966</v>
+        <v>967</v>
+      </c>
+      <c r="K70" s="10">
+        <v>1018</v>
       </c>
     </row>
     <row r="71" spans="9:11">
@@ -3823,10 +3828,10 @@
         <v>70</v>
       </c>
       <c r="J71">
-        <v>909</v>
-      </c>
-      <c r="K71">
-        <v>966</v>
+        <v>959</v>
+      </c>
+      <c r="K71" s="10">
+        <v>1018</v>
       </c>
     </row>
     <row r="72" spans="9:11">
@@ -3834,10 +3839,10 @@
         <v>80</v>
       </c>
       <c r="J72">
-        <v>902</v>
-      </c>
-      <c r="K72">
-        <v>966</v>
+        <v>951</v>
+      </c>
+      <c r="K72" s="10">
+        <v>1018</v>
       </c>
     </row>
     <row r="73" spans="9:11">
@@ -3845,10 +3850,10 @@
         <v>90</v>
       </c>
       <c r="J73">
-        <v>894</v>
-      </c>
-      <c r="K73">
-        <v>966</v>
+        <v>944</v>
+      </c>
+      <c r="K73" s="10">
+        <v>1018</v>
       </c>
     </row>
     <row r="74" spans="9:11">
@@ -3856,10 +3861,10 @@
         <v>100</v>
       </c>
       <c r="J74">
-        <v>888</v>
-      </c>
-      <c r="K74">
-        <v>966</v>
+        <v>937</v>
+      </c>
+      <c r="K74" s="10">
+        <v>1018</v>
       </c>
     </row>
     <row r="75" spans="9:11">
@@ -3867,10 +3872,10 @@
         <v>110</v>
       </c>
       <c r="J75">
-        <v>881</v>
-      </c>
-      <c r="K75">
-        <v>966</v>
+        <v>930</v>
+      </c>
+      <c r="K75" s="10">
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -3890,7 +3895,7 @@
   <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:U23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3969,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="C4">
         <v>728</v>
@@ -4005,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>11</v>
